--- a/biology/Biologie cellulaire et moléculaire/Rubrédoxine/Rubrédoxine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Rubrédoxine/Rubrédoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rubr%C3%A9doxine</t>
+          <t>Rubrédoxine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rubrédoxine est une protéine de faible poids moléculaire intervenant dans le métabolisme des bactéries et des archées utilisant le soufre comme accepteur d'électrons. On les classe parfois parmi les protéines fer-soufre bien qu'elles ne contiennent pas à proprement parler de cluster fer-soufre avec des anions sulfure S2−, de sorte qu'on les note dans ce cas comme protéines [1Fe-0S] ou Fe1S0 par extrapolation de la nomenclature des protéines Fe-S. Elles réalisent des transferts d'électrons dans les systèmes biologiques, tout comme les cytochromes, les ferrédoxines et les protéines de Rieske.
 Les rubrédoxines ont une structure secondaire comprenant deux hélices α et deux ou trois feuillets β, le site actif contenant un cation de fer coordonné à quatre atomes de soufre appartenant aux groupes thiol de quatre résidus cystéine, selon une géométrie assez proche d'un tétraèdre régulier.
